--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3660.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3660.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.189155127445602</v>
+        <v>1.157014012336731</v>
       </c>
       <c r="B1">
-        <v>1.506287851666279</v>
+        <v>1.380603790283203</v>
       </c>
       <c r="C1">
-        <v>2.213232068915576</v>
+        <v>1.141376256942749</v>
       </c>
       <c r="D1">
-        <v>7.462243295352394</v>
+        <v>1.129527807235718</v>
       </c>
       <c r="E1">
-        <v>3.181439236563528</v>
+        <v>1.161216974258423</v>
       </c>
     </row>
   </sheetData>
